--- a/doc/excel/[sample_sysUser]账号信息录入样表.xlsx
+++ b/doc/excel/[sample_sysUser]账号信息录入样表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BA8B01-167E-4C62-B57C-399E07F134C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10598BA-93D8-4987-9D08-A31E9681B597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="2490" windowWidth="28605" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="6195" windowWidth="25095" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,14 +559,15 @@
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.125" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -575,25 +584,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -609,19 +624,20 @@
       <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="9">
+      <c r="K2" s="9">
         <v>42009</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
